--- a/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,585 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r578304296-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>8631852</t>
+  </si>
+  <si>
+    <t>578304296</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>New hotel, very comfortable and well kept</t>
+  </si>
+  <si>
+    <t>Very happy with the stay. Courteous staff. Clean, beautifully decorated rooms. Hot breakfast. The 2-room suite was large, with plenty of light. Kitchen had everything needed. Close to shopping center. They also have delivery to the room for grocery during the stay. Nice sized indoor pool, and nice gym. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Heather E, Manager at Residence Inn by Marriott Denton, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Very happy with the stay. Courteous staff. Clean, beautifully decorated rooms. Hot breakfast. The 2-room suite was large, with plenty of light. Kitchen had everything needed. Close to shopping center. They also have delivery to the room for grocery during the stay. Nice sized indoor pool, and nice gym. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r573528875-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>573528875</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>One of the best</t>
+  </si>
+  <si>
+    <t>This hotel saved the trip!  Another hotel chain messed up our reservation so we had no room. After driving for over 12 hours we called Residence Inn, they had room at an affordable price and they welcomed our dogs!  This hotel has a great staff that went above and beyond.  Very clean looking and smelling and newer decor.  The bed was very comfortable and they offer internet tv so we could use our netflix and hulu.  Convenient location to atires and food options.  The pool area was clean,and not overwhelming smell of chlorine.I highly reccommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>This hotel saved the trip!  Another hotel chain messed up our reservation so we had no room. After driving for over 12 hours we called Residence Inn, they had room at an affordable price and they welcomed our dogs!  This hotel has a great staff that went above and beyond.  Very clean looking and smelling and newer decor.  The bed was very comfortable and they offer internet tv so we could use our netflix and hulu.  Convenient location to atires and food options.  The pool area was clean,and not overwhelming smell of chlorine.I highly reccommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r571964750-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>571964750</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great hospitality p!</t>
+  </si>
+  <si>
+    <t>From our check in experience through checkout, this property was better than we expected. How often do you get to say that?  Devon at check in was pleasant and welcoming. Our room was spotless and tastefully designed and comfortable. The lobby was fun and interesting to look at. Breakfast was really good.  Checkout was a breeze, and access to and from the highway easy. Well done, team!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>From our check in experience through checkout, this property was better than we expected. How often do you get to say that?  Devon at check in was pleasant and welcoming. Our room was spotless and tastefully designed and comfortable. The lobby was fun and interesting to look at. Breakfast was really good.  Checkout was a breeze, and access to and from the highway easy. Well done, team!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r551202739-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>551202739</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>It's Not the Money; It's the Principle</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for the last three nights of our nine-day family Christmas trip.  Previously, we had stayed at two other Marriott hotels in our travels.This Residence Inn is new, therefore it is still clean and fresh.  The décor is nice and the rooms are comfortably furnished.  The hotel is in a good location, just off Interstate 35 and near restaurants and shopping.Upon closely reviewing our bill the day after we checked out (should have done that before we left the hotel) I noticed a Data Service charge of $4.95.  I spoke with Cindy at the Residence Inn about this and she said it was the High Speed Internet charge.  I told her we had been familiar with the two Internet charges, having stayed at other Marriott locations, and neither I nor my husband had chosen the High Speed.  Cindy said that charge could not be reversed as it was not a Marriott charge.  I then spoke with the manager, Heather.  She reiterated what Cindy had told me.  When I asked Heather for the contact information of their Internet provider, Heather hung up on me.I'm sure all their business contracts will keep this hotel alive but I was not impressed with management.  Maybe it's immaturity, but whatever it is I feel this is poor business practice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel for the last three nights of our nine-day family Christmas trip.  Previously, we had stayed at two other Marriott hotels in our travels.This Residence Inn is new, therefore it is still clean and fresh.  The décor is nice and the rooms are comfortably furnished.  The hotel is in a good location, just off Interstate 35 and near restaurants and shopping.Upon closely reviewing our bill the day after we checked out (should have done that before we left the hotel) I noticed a Data Service charge of $4.95.  I spoke with Cindy at the Residence Inn about this and she said it was the High Speed Internet charge.  I told her we had been familiar with the two Internet charges, having stayed at other Marriott locations, and neither I nor my husband had chosen the High Speed.  Cindy said that charge could not be reversed as it was not a Marriott charge.  I then spoke with the manager, Heather.  She reiterated what Cindy had told me.  When I asked Heather for the contact information of their Internet provider, Heather hung up on me.I'm sure all their business contracts will keep this hotel alive but I was not impressed with management.  Maybe it's immaturity, but whatever it is I feel this is poor business practice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r550020861-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>550020861</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Not too happy with being lied to...</t>
+  </si>
+  <si>
+    <t>So, I am Marriott Gold Elite member.  I received a notification that my room was ready as I was driving into town.  I decided to call and ask if they had upgrades available because I did receive the notification.  A lady answered the phone and told me no because they were sold out.  Upon arrival to the hotel, I asked the question about receiving the upgrade.  The gentleman told me yes one was available.  I proceeded to ask if they were sold out, or has been anticipated to be sold out that night.  He told me no.  If she did not want to provide the upgrade, she could have said that, but lying to a customer is never a good result!  I was almost at a 2, but the other employees made up for this one.  This hotel also has extremely limited room choices.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>So, I am Marriott Gold Elite member.  I received a notification that my room was ready as I was driving into town.  I decided to call and ask if they had upgrades available because I did receive the notification.  A lady answered the phone and told me no because they were sold out.  Upon arrival to the hotel, I asked the question about receiving the upgrade.  The gentleman told me yes one was available.  I proceeded to ask if they were sold out, or has been anticipated to be sold out that night.  He told me no.  If she did not want to provide the upgrade, she could have said that, but lying to a customer is never a good result!  I was almost at a 2, but the other employees made up for this one.  This hotel also has extremely limited room choices.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r548773451-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>548773451</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Great hotel with a nice room layout. I was here for work and my stay was a week. Housekeeping did an excellent job of cleaning the room. The bed was comfy and was at a great height. The room had a smart tv which allowed me to login to my Netflix account...big plus. I would recommend and would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel with a nice room layout. I was here for work and my stay was a week. Housekeeping did an excellent job of cleaning the room. The bed was comfy and was at a great height. The room had a smart tv which allowed me to login to my Netflix account...big plus. I would recommend and would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r538039881-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>538039881</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Great Extended Stay but shower fast</t>
+  </si>
+  <si>
+    <t>This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause...This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause a noise problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause...This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause a noise problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r531120118-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>531120118</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I spent two nights at this hotel last weekend while I was in town for my son's wedding, which was held in Aubrey, TX.  Our room was clean, comfortable, spacious, and quiet.  I booked the room by redeeming some points and also using a free night obtained as a Marriott Rewards Cardholder. The front desk staff was very pleasant.  In fact, Tyler remembered my name throughout my stay.  The breakfast personnel were equally kind.  In fact, one of the ladies went into the kitchen in search of perfectly ripe banana for my husband! The hotel was a little hard to locate once we exited, I-35.  Your best bet would be to enter through the QT parking lot and drive thru the small strip mall.  The view from our room was of a power station. However, I don't think any of the rooms offer a great view due to the location of the hotel. I would definitely stay at this hotel again if I am ever in the area.  My son commented that our room was much nicer than his room at the Marriott Courtyard and that his room also did not include a complimentary breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>I spent two nights at this hotel last weekend while I was in town for my son's wedding, which was held in Aubrey, TX.  Our room was clean, comfortable, spacious, and quiet.  I booked the room by redeeming some points and also using a free night obtained as a Marriott Rewards Cardholder. The front desk staff was very pleasant.  In fact, Tyler remembered my name throughout my stay.  The breakfast personnel were equally kind.  In fact, one of the ladies went into the kitchen in search of perfectly ripe banana for my husband! The hotel was a little hard to locate once we exited, I-35.  Your best bet would be to enter through the QT parking lot and drive thru the small strip mall.  The view from our room was of a power station. However, I don't think any of the rooms offer a great view due to the location of the hotel. I would definitely stay at this hotel again if I am ever in the area.  My son commented that our room was much nicer than his room at the Marriott Courtyard and that his room also did not include a complimentary breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r524129253-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>524129253</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The hotel is nice and so are all the employees I met.  Clean like you expect out of the Marriott system plenty of parking and beds are very comfortable.  Tiffany at the front desk ( breakfast area and social director)  needs a big shout out in a three day stay I watched her work three different positions and was very good at eachMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is nice and so are all the employees I met.  Clean like you expect out of the Marriott system plenty of parking and beds are very comfortable.  Tiffany at the front desk ( breakfast area and social director)  needs a big shout out in a three day stay I watched her work three different positions and was very good at eachMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r507260406-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>507260406</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>I booked this for one night due to business in the Denton, Texas area, and I'm glad I ran into this area. The property and staff were absolutely top notch! Upon check-in, the front desk associate, Tyler, gave great friendly and personal service to ensure satisfaction. He called after an hour to ensure that the room was to perfection, and offered his name and extension if I needed anything else.The room was one of the best Marriott rooms I have stayed at, and I'm a Platinum Elite member, so I've seen a lot!The GM was friendly, and even offered to keep my food in their fridge after checkout so it would stay cold (the car would ruin the food in a Texas summer!). Absolutely, 10/10 I will stay again. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>I booked this for one night due to business in the Denton, Texas area, and I'm glad I ran into this area. The property and staff were absolutely top notch! Upon check-in, the front desk associate, Tyler, gave great friendly and personal service to ensure satisfaction. He called after an hour to ensure that the room was to perfection, and offered his name and extension if I needed anything else.The room was one of the best Marriott rooms I have stayed at, and I'm a Platinum Elite member, so I've seen a lot!The GM was friendly, and even offered to keep my food in their fridge after checkout so it would stay cold (the car would ruin the food in a Texas summer!). Absolutely, 10/10 I will stay again. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r503982605-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>503982605</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>A great place to stay!</t>
+  </si>
+  <si>
+    <t>The hotel is very comfortable, the breakfast more that adequate and the staff were all very friendly.  We will definitely stay at this location for any future visits to the area.  the hotel is right off the I 35 so it is very convenient.  There is a shopping mall about 1.5 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very comfortable, the breakfast more that adequate and the staff were all very friendly.  We will definitely stay at this location for any future visits to the area.  the hotel is right off the I 35 so it is very convenient.  There is a shopping mall about 1.5 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r499727735-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>499727735</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Entire staff was amazing! Loved how accommodating Heather and staff was</t>
+  </si>
+  <si>
+    <t>We traveled from Minnesota and stayed in 5 hotels in 4 states on this football camp trip and by far, the Residence Denton was the best. Great staff, great breakfast, clean classy decor. I can't say enough about how great our stay was thanks to Heather and her amazing staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>We traveled from Minnesota and stayed in 5 hotels in 4 states on this football camp trip and by far, the Residence Denton was the best. Great staff, great breakfast, clean classy decor. I can't say enough about how great our stay was thanks to Heather and her amazing staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r484732956-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>484732956</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel near Denton</t>
+  </si>
+  <si>
+    <t>I've stayed at a few 'tier two' places in Denton and this one is by far the best (there are no 'tier one' places, like Marriotts or Hiltons).  Looks to be fairly new.  We had a two bedroom/two bath and it was very modern, clean, and large.  Very comfortable beds. Fully equipped kitchen.  It is a little tricky to get to off the interstate, having to meander through to the back of a small strip shopping center (use your GPS), but parking was ample, lobby was nicely decorated, and the free breakfast was good (waffle maker, eggs, cereals, breakfast meats, etc). We went for my daughter's graduation from UNT.  It takes only a few minutes to drive to downtown Denton.  Nearby there are some family restaurant chains (BJ's, On the Border, etc.) although there is nothing walk-able.  We'll stay at the Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at a few 'tier two' places in Denton and this one is by far the best (there are no 'tier one' places, like Marriotts or Hiltons).  Looks to be fairly new.  We had a two bedroom/two bath and it was very modern, clean, and large.  Very comfortable beds. Fully equipped kitchen.  It is a little tricky to get to off the interstate, having to meander through to the back of a small strip shopping center (use your GPS), but parking was ample, lobby was nicely decorated, and the free breakfast was good (waffle maker, eggs, cereals, breakfast meats, etc). We went for my daughter's graduation from UNT.  It takes only a few minutes to drive to downtown Denton.  Nearby there are some family restaurant chains (BJ's, On the Border, etc.) although there is nothing walk-able.  We'll stay at the Residence Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r481719289-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>481719289</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent!!</t>
+  </si>
+  <si>
+    <t>Great location---new hotel. Kids loved swimming in the pool. Everyone that works there was really nice &amp; friendly! After getting home a few days later, I realized I left my favorite sweater in the room. I called the hotel and the staff found my sweater!! Rosa found it in my room &amp; turned it in to lost and found. The manager, Heather, mailed it to my house!! Excellent customer service. I am SO grateful! Would definitely recommend this hotel to anyone!! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Great location---new hotel. Kids loved swimming in the pool. Everyone that works there was really nice &amp; friendly! After getting home a few days later, I realized I left my favorite sweater in the room. I called the hotel and the staff found my sweater!! Rosa found it in my room &amp; turned it in to lost and found. The manager, Heather, mailed it to my house!! Excellent customer service. I am SO grateful! Would definitely recommend this hotel to anyone!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r479850428-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>479850428</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We could not have been more pleased with our accommodations at the Marriott.  The entire staff was wonderful and did everything to make us feel welcome. We highly recommend this site when staying in the Denton area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We could not have been more pleased with our accommodations at the Marriott.  The entire staff was wonderful and did everything to make us feel welcome. We highly recommend this site when staying in the Denton area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r469833918-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>469833918</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay and excellent staff</t>
+  </si>
+  <si>
+    <t>we had a quick trip to the DFW area and needed a place to stay for one night.  This property was extremely clean, a great value, and the staff was friendly and helpful.  I highly recommend this location!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>we had a quick trip to the DFW area and needed a place to stay for one night.  This property was extremely clean, a great value, and the staff was friendly and helpful.  I highly recommend this location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r466792336-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>466792336</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This is such a pleasant place to stay.  The staff at the front desk were so nice and accommodating.  It was obvious a lot of thought had gone into the layout and furnishings of our king suite.  There was a large desk, comfortable sofa with a snack table and a TV that swiveled 180 degrees so it could be watched from the living room or bedroom.  There was a huge shower with a wonderful shower head.  The hot breakfast was delicious and varies from day-to-day (waffles very good).  We don't have much cause to be in Denton, but if we go back we would absolutely stay here again.  As best we could tell, there is no real driveway into this property.  You sort of have to weave your way through the gas station/bbq/strip shopping lots to get to the hotel.  It could be marked better at ground level, but you can clearly see the hotel from the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>This is such a pleasant place to stay.  The staff at the front desk were so nice and accommodating.  It was obvious a lot of thought had gone into the layout and furnishings of our king suite.  There was a large desk, comfortable sofa with a snack table and a TV that swiveled 180 degrees so it could be watched from the living room or bedroom.  There was a huge shower with a wonderful shower head.  The hot breakfast was delicious and varies from day-to-day (waffles very good).  We don't have much cause to be in Denton, but if we go back we would absolutely stay here again.  As best we could tell, there is no real driveway into this property.  You sort of have to weave your way through the gas station/bbq/strip shopping lots to get to the hotel.  It could be marked better at ground level, but you can clearly see the hotel from the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r455628072-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>455628072</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful new hotel... Terrible Housekeeping </t>
+  </si>
+  <si>
+    <t>I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes...I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes and leaving trash in the room after it has supposedly been cleaned. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes...I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes and leaving trash in the room after it has supposedly been cleaned. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r435207810-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>435207810</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>Terrific hotel and brand new and very nicely decorated. Staff was professional, friendly and Mathew at front desk went out of his way to help us resolve a minor issue. Breakfast was good and plenty of food and well kept up.Great location to UNT and I35 would highly  recommend is doing any functions at the university. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Terrific hotel and brand new and very nicely decorated. Staff was professional, friendly and Mathew at front desk went out of his way to help us resolve a minor issue. Breakfast was good and plenty of food and well kept up.Great location to UNT and I35 would highly  recommend is doing any functions at the university. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r433260036-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>433260036</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Brand New and Dog-Friendly</t>
+  </si>
+  <si>
+    <t>Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. 
+My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. 
+The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  
+Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and...Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and other health care.  This hotel is nicely dog friendly with two lawn areas to the back under high tension power lines, and a station with bags and a disposal can. I just wish some of my fellow guests would have used it!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. 
+My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. 
+The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  
+Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and...Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and other health care.  This hotel is nicely dog friendly with two lawn areas to the back under high tension power lines, and a station with bags and a disposal can. I just wish some of my fellow guests would have used it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r430956022-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>430956022</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>We had 3 rooms. The rooms are great in layout and size. The pool is nice. Breakfast is good. The staff is friendly. Now for the bad, HOUSEKEEPING. My SIL room was still dirty at check in, this may have been a frint desk mistake but it's not the only HOUSEKEEPING issue. Our room had emptt tissue box and no toilets paper on the roll. The following day HOUSEKEEPING knocked at 8. We were about to leave for a funeral and told them to come back. We were gone for almost 4 hours and they never came. We let the frint desk know when we were about to leave again around 5 and just asked to get towels and sheets. We got back at 8 ro nothing. We called the fd again and finally got these itemsMoreShow less</t>
+  </si>
+  <si>
+    <t>We had 3 rooms. The rooms are great in layout and size. The pool is nice. Breakfast is good. The staff is friendly. Now for the bad, HOUSEKEEPING. My SIL room was still dirty at check in, this may have been a frint desk mistake but it's not the only HOUSEKEEPING issue. Our room had emptt tissue box and no toilets paper on the roll. The following day HOUSEKEEPING knocked at 8. We were about to leave for a funeral and told them to come back. We were gone for almost 4 hours and they never came. We let the frint desk know when we were about to leave again around 5 and just asked to get towels and sheets. We got back at 8 ro nothing. We called the fd again and finally got these itemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r424530343-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>424530343</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel with some minor glitches</t>
+  </si>
+  <si>
+    <t>I was in room 429... A perfect location at the end of the hall, very quiet (note that was only because nobody played ball on the court right outside my window... If that will bother you ask for the other end of the hall).  What I LOVED:1.  The one bedroom suite now has the bedroom separate from the bathroom so the person on the pull out sofa can use the bathroom without going through the bedroom. 2.  The location was easy on and off the highway What was good - bed linens and pillows were the Marriott brand, but the mattress was not... So comfy but not excellent. The glitches - the air conditioner blows air onto your head while sleeping. It's not right over top, it's the angle of the vent. In the living area the air hits you while sitting on the sofa. They could really use some new vents that diffuse the cold air better.  It made sitting and reading in bed very uncomfortable.  This lowered them from a 4 to a 3 star.Pet peeve - checked in at 12:30 on a Friday afternoon, platinum level Marriott rewards member... Already out of newspapers.  Come on guys, you should know the number of people checking in and plan better. Guy at the desk offered that I could walk to the gas station. Gee, thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>I was in room 429... A perfect location at the end of the hall, very quiet (note that was only because nobody played ball on the court right outside my window... If that will bother you ask for the other end of the hall).  What I LOVED:1.  The one bedroom suite now has the bedroom separate from the bathroom so the person on the pull out sofa can use the bathroom without going through the bedroom. 2.  The location was easy on and off the highway What was good - bed linens and pillows were the Marriott brand, but the mattress was not... So comfy but not excellent. The glitches - the air conditioner blows air onto your head while sleeping. It's not right over top, it's the angle of the vent. In the living area the air hits you while sitting on the sofa. They could really use some new vents that diffuse the cold air better.  It made sitting and reading in bed very uncomfortable.  This lowered them from a 4 to a 3 star.Pet peeve - checked in at 12:30 on a Friday afternoon, platinum level Marriott rewards member... Already out of newspapers.  Come on guys, you should know the number of people checking in and plan better. Guy at the desk offered that I could walk to the gas station. Gee, thanks.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1227,1400 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>171</v>
+      </c>
+      <c r="X21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>370shivania</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Very happy with the stay. Courteous staff. Clean, beautifully decorated rooms. Hot breakfast. The 2-room suite was large, with plenty of light. Kitchen had everything needed. Close to shopping center. They also have delivery to the room for grocery during the stay. Nice sized indoor pool, and nice gym. More</t>
   </si>
   <si>
+    <t>MoonWillow420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r573528875-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>This hotel saved the trip!  Another hotel chain messed up our reservation so we had no room. After driving for over 12 hours we called Residence Inn, they had room at an affordable price and they welcomed our dogs!  This hotel has a great staff that went above and beyond.  Very clean looking and smelling and newer decor.  The bed was very comfortable and they offer internet tv so we could use our netflix and hulu.  Convenient location to atires and food options.  The pool area was clean,and not overwhelming smell of chlorine.I highly reccommend this hotel!More</t>
   </si>
   <si>
+    <t>austinteri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r571964750-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>From our check in experience through checkout, this property was better than we expected. How often do you get to say that?  Devon at check in was pleasant and welcoming. Our room was spotless and tastefully designed and comfortable. The lobby was fun and interesting to look at. Breakfast was really good.  Checkout was a breeze, and access to and from the highway easy. Well done, team!More</t>
   </si>
   <si>
+    <t>godsbooboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r551202739-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>My husband and I stayed at this hotel for the last three nights of our nine-day family Christmas trip.  Previously, we had stayed at two other Marriott hotels in our travels.This Residence Inn is new, therefore it is still clean and fresh.  The décor is nice and the rooms are comfortably furnished.  The hotel is in a good location, just off Interstate 35 and near restaurants and shopping.Upon closely reviewing our bill the day after we checked out (should have done that before we left the hotel) I noticed a Data Service charge of $4.95.  I spoke with Cindy at the Residence Inn about this and she said it was the High Speed Internet charge.  I told her we had been familiar with the two Internet charges, having stayed at other Marriott locations, and neither I nor my husband had chosen the High Speed.  Cindy said that charge could not be reversed as it was not a Marriott charge.  I then spoke with the manager, Heather.  She reiterated what Cindy had told me.  When I asked Heather for the contact information of their Internet provider, Heather hung up on me.I'm sure all their business contracts will keep this hotel alive but I was not impressed with management.  Maybe it's immaturity, but whatever it is I feel this is poor business practice.More</t>
   </si>
   <si>
+    <t>Lonnell D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r550020861-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>So, I am Marriott Gold Elite member.  I received a notification that my room was ready as I was driving into town.  I decided to call and ask if they had upgrades available because I did receive the notification.  A lady answered the phone and told me no because they were sold out.  Upon arrival to the hotel, I asked the question about receiving the upgrade.  The gentleman told me yes one was available.  I proceeded to ask if they were sold out, or has been anticipated to be sold out that night.  He told me no.  If she did not want to provide the upgrade, she could have said that, but lying to a customer is never a good result!  I was almost at a 2, but the other employees made up for this one.  This hotel also has extremely limited room choices.  More</t>
   </si>
   <si>
+    <t>Sirvirther C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r548773451-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Great hotel with a nice room layout. I was here for work and my stay was a week. Housekeeping did an excellent job of cleaning the room. The bed was comfy and was at a great height. The room had a smart tv which allowed me to login to my Netflix account...big plus. I would recommend and would definitely stay here again. More</t>
   </si>
   <si>
+    <t>airdronepilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r538039881-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause...This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause a noise problem.More</t>
   </si>
   <si>
+    <t>56Deb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r531120118-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>I spent two nights at this hotel last weekend while I was in town for my son's wedding, which was held in Aubrey, TX.  Our room was clean, comfortable, spacious, and quiet.  I booked the room by redeeming some points and also using a free night obtained as a Marriott Rewards Cardholder. The front desk staff was very pleasant.  In fact, Tyler remembered my name throughout my stay.  The breakfast personnel were equally kind.  In fact, one of the ladies went into the kitchen in search of perfectly ripe banana for my husband! The hotel was a little hard to locate once we exited, I-35.  Your best bet would be to enter through the QT parking lot and drive thru the small strip mall.  The view from our room was of a power station. However, I don't think any of the rooms offer a great view due to the location of the hotel. I would definitely stay at this hotel again if I am ever in the area.  My son commented that our room was much nicer than his room at the Marriott Courtyard and that his room also did not include a complimentary breakfast.More</t>
   </si>
   <si>
+    <t>Doc523</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r524129253-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>The hotel is nice and so are all the employees I met.  Clean like you expect out of the Marriott system plenty of parking and beds are very comfortable.  Tiffany at the front desk ( breakfast area and social director)  needs a big shout out in a three day stay I watched her work three different positions and was very good at eachMore</t>
   </si>
   <si>
+    <t>BritishSandite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r507260406-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>I booked this for one night due to business in the Denton, Texas area, and I'm glad I ran into this area. The property and staff were absolutely top notch! Upon check-in, the front desk associate, Tyler, gave great friendly and personal service to ensure satisfaction. He called after an hour to ensure that the room was to perfection, and offered his name and extension if I needed anything else.The room was one of the best Marriott rooms I have stayed at, and I'm a Platinum Elite member, so I've seen a lot!The GM was friendly, and even offered to keep my food in their fridge after checkout so it would stay cold (the car would ruin the food in a Texas summer!). Absolutely, 10/10 I will stay again. Thank you!More</t>
   </si>
   <si>
+    <t>jergmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r503982605-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -456,6 +489,9 @@
     <t>The hotel is very comfortable, the breakfast more that adequate and the staff were all very friendly.  We will definitely stay at this location for any future visits to the area.  the hotel is right off the I 35 so it is very convenient.  There is a shopping mall about 1.5 miles away.More</t>
   </si>
   <si>
+    <t>Jamila G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r499727735-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -483,6 +519,9 @@
     <t>We traveled from Minnesota and stayed in 5 hotels in 4 states on this football camp trip and by far, the Residence Denton was the best. Great staff, great breakfast, clean classy decor. I can't say enough about how great our stay was thanks to Heather and her amazing staff.More</t>
   </si>
   <si>
+    <t>Boris072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r484732956-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -510,6 +549,9 @@
     <t>I've stayed at a few 'tier two' places in Denton and this one is by far the best (there are no 'tier one' places, like Marriotts or Hiltons).  Looks to be fairly new.  We had a two bedroom/two bath and it was very modern, clean, and large.  Very comfortable beds. Fully equipped kitchen.  It is a little tricky to get to off the interstate, having to meander through to the back of a small strip shopping center (use your GPS), but parking was ample, lobby was nicely decorated, and the free breakfast was good (waffle maker, eggs, cereals, breakfast meats, etc). We went for my daughter's graduation from UNT.  It takes only a few minutes to drive to downtown Denton.  Nearby there are some family restaurant chains (BJ's, On the Border, etc.) although there is nothing walk-able.  We'll stay at the Residence Inn again.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r481719289-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -540,6 +582,9 @@
     <t>Great location---new hotel. Kids loved swimming in the pool. Everyone that works there was really nice &amp; friendly! After getting home a few days later, I realized I left my favorite sweater in the room. I called the hotel and the staff found my sweater!! Rosa found it in my room &amp; turned it in to lost and found. The manager, Heather, mailed it to my house!! Excellent customer service. I am SO grateful! Would definitely recommend this hotel to anyone!! More</t>
   </si>
   <si>
+    <t>merlmonroe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r479850428-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -558,6 +603,9 @@
     <t>We could not have been more pleased with our accommodations at the Marriott.  The entire staff was wonderful and did everything to make us feel welcome. We highly recommend this site when staying in the Denton area.More</t>
   </si>
   <si>
+    <t>aaronsP5623ZY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r469833918-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>we had a quick trip to the DFW area and needed a place to stay for one night.  This property was extremely clean, a great value, and the staff was friendly and helpful.  I highly recommend this location!More</t>
   </si>
   <si>
+    <t>Austxnaturegal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r466792336-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -609,6 +660,9 @@
     <t>This is such a pleasant place to stay.  The staff at the front desk were so nice and accommodating.  It was obvious a lot of thought had gone into the layout and furnishings of our king suite.  There was a large desk, comfortable sofa with a snack table and a TV that swiveled 180 degrees so it could be watched from the living room or bedroom.  There was a huge shower with a wonderful shower head.  The hot breakfast was delicious and varies from day-to-day (waffles very good).  We don't have much cause to be in Denton, but if we go back we would absolutely stay here again.  As best we could tell, there is no real driveway into this property.  You sort of have to weave your way through the gas station/bbq/strip shopping lots to get to the hotel.  It could be marked better at ground level, but you can clearly see the hotel from the highway.More</t>
   </si>
   <si>
+    <t>TLBJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r455628072-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -636,6 +690,9 @@
     <t>I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes...I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes and leaving trash in the room after it has supposedly been cleaned. More</t>
   </si>
   <si>
+    <t>FrankVZ8521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r435207810-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -655,6 +712,9 @@
   </si>
   <si>
     <t>Terrific hotel and brand new and very nicely decorated. Staff was professional, friendly and Mathew at front desk went out of his way to help us resolve a minor issue. Breakfast was good and plenty of food and well kept up.Great location to UNT and I35 would highly  recommend is doing any functions at the university. More</t>
+  </si>
+  <si>
+    <t>lietuva_9</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r433260036-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -684,6 +744,9 @@
 Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and...Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and other health care.  This hotel is nicely dog friendly with two lawn areas to the back under high tension power lines, and a station with bags and a disposal can. I just wish some of my fellow guests would have used it!More</t>
   </si>
   <si>
+    <t>AR-BRAY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r430956022-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -700,6 +763,9 @@
   </si>
   <si>
     <t>We had 3 rooms. The rooms are great in layout and size. The pool is nice. Breakfast is good. The staff is friendly. Now for the bad, HOUSEKEEPING. My SIL room was still dirty at check in, this may have been a frint desk mistake but it's not the only HOUSEKEEPING issue. Our room had emptt tissue box and no toilets paper on the roll. The following day HOUSEKEEPING knocked at 8. We were about to leave for a funeral and told them to come back. We were gone for almost 4 hours and they never came. We let the frint desk know when we were about to leave again around 5 and just asked to get towels and sheets. We got back at 8 ro nothing. We called the fd again and finally got these itemsMore</t>
+  </si>
+  <si>
+    <t>Lynda P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r424530343-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -1231,43 +1297,47 @@
       <c r="A2" t="n">
         <v>63408</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175883</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1279,56 +1349,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63408</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175884</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1340,56 +1414,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63408</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>110160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1401,56 +1479,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63408</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146860</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1468,56 +1550,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63408</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>90839</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1529,56 +1615,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63408</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175885</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1590,56 +1680,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63408</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175886</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1657,56 +1751,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63408</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175887</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1724,56 +1822,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63408</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175888</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1785,56 +1887,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63408</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175889</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1846,56 +1952,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63408</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175890</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1913,56 +2023,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63408</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175891</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1980,56 +2094,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63408</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>75223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2045,56 +2163,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63408</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2106,56 +2228,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63408</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175892</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2167,56 +2293,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63408</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175893</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2228,56 +2358,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63408</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175894</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2295,56 +2429,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63408</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175895</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2356,56 +2494,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63408</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175896</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2417,56 +2559,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63408</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>69816</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2484,56 +2630,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63408</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175897</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2545,56 +2695,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X22" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63408</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>32112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2612,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_663.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,216 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>370shivania</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r610148845-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>8631852</t>
+  </si>
+  <si>
+    <t>610148845</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Every time I travel home to Texas I stay at the Residence Inn. The front desk staff is always very helpful and the managers are even better. Unlike most hotels, the GM's office looks our into her lobby so that she can greet the guest and be involved with them and her staff. I have stayed at multiple hotels where the gm would rather hide from me than assist me, but that isn't the case here. I recommend this hotel to anyone looking for a nice, CLEAN, room to stay in Denton, Tx. Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded today</t>
+  </si>
+  <si>
+    <t>Responded today</t>
+  </si>
+  <si>
+    <t>Every time I travel home to Texas I stay at the Residence Inn. The front desk staff is always very helpful and the managers are even better. Unlike most hotels, the GM's office looks our into her lobby so that she can greet the guest and be involved with them and her staff. I have stayed at multiple hotels where the gm would rather hide from me than assist me, but that isn't the case here. I recommend this hotel to anyone looking for a nice, CLEAN, room to stay in Denton, Tx. Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r603919169-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>603919169</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Great management</t>
+  </si>
+  <si>
+    <t>Great hotel. Great location. Great staff. Great food. Free breakfast and dinner! The food is awesome, very high quality. Love this hotel. All other hotels fail in comparison to the residence inn denton.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Great hotel. Great location. Great staff. Great food. Free breakfast and dinner! The food is awesome, very high quality. Love this hotel. All other hotels fail in comparison to the residence inn denton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r598658324-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>598658324</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for a week &amp; really enjoyed my stay! Check in person was VERY friendly- didn't catch his name! Beautiful rooms, free breakfast, and friendly staff! I'm not used to being cleaned after but housekeeping kept my room clean &amp; 1 day even left me a little note- thanks Bianca! There's a basketball 1/2 court, pool, gym  and the offer drinks &amp; hors d'oeuvres during the wk &amp; certain hours. Great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed here for a week &amp; really enjoyed my stay! Check in person was VERY friendly- didn't catch his name! Beautiful rooms, free breakfast, and friendly staff! I'm not used to being cleaned after but housekeeping kept my room clean &amp; 1 day even left me a little note- thanks Bianca! There's a basketball 1/2 court, pool, gym  and the offer drinks &amp; hors d'oeuvres during the wk &amp; certain hours. Great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r593672124-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>593672124</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here.. Terrible Managers, Hundreds Charged Erroneously</t>
+  </si>
+  <si>
+    <t>I wish I could rate this place zero stars. The one thing they got right was my request for an early check in but I am chalking that up to the fact that this hotel is literally in THE worse place which means they don’t do high volume business to begin with. Arriving my GPS wS confused and I realized that is because this hotel does not have its own access road. You literally drive into the parking lot of QuickTrip and Dickeys BBQ and cut across and these lots lead into the parking lot of the hotel. 
+Checking into my room I noted it was much smaller than other Residence Inn Marriott’s. I also noted housekeeping was lackluster. There were items left under the bed which always grosses me out. It makes me wonder how well they cleaned other things. 
+During my 2 day stay I must have stopped by the front desk a dozen times to have my key reprogrammed as they sporadically stopped working. I was the sole name on my reservation but I had someone come to the front desk and ask for a key and without calling to ask me if it was okay they released a key to him. Not once but twice! A employee AND the manager Shelly (or Shea I’m not sure what she goes by as she gave me one name but her badge displayed another). 
+At checkout I gave my...I wish I could rate this place zero stars. The one thing they got right was my request for an early check in but I am chalking that up to the fact that this hotel is literally in THE worse place which means they don’t do high volume business to begin with. Arriving my GPS wS confused and I realized that is because this hotel does not have its own access road. You literally drive into the parking lot of QuickTrip and Dickeys BBQ and cut across and these lots lead into the parking lot of the hotel. Checking into my room I noted it was much smaller than other Residence Inn Marriott’s. I also noted housekeeping was lackluster. There were items left under the bed which always grosses me out. It makes me wonder how well they cleaned other things. During my 2 day stay I must have stopped by the front desk a dozen times to have my key reprogrammed as they sporadically stopped working. I was the sole name on my reservation but I had someone come to the front desk and ask for a key and without calling to ask me if it was okay they released a key to him. Not once but twice! A employee AND the manager Shelly (or Shea I’m not sure what she goes by as she gave me one name but her badge displayed another). At checkout I gave my name and key and told the agent I was leaving and didn’t need a bill. Shea the manager came to assist the girl and direct her on how to check out, I was almost to the door when Heather the general manager stopped me and asked my name and room number. I told her and she says in an off hand manner, Oh I was just calling your room a second ago to tell you there’s an additional $100 charge for the pets you had. Is it ok to keep it on the card on file. I was floored. I said NO it is not okay and I think I need a copy of my bill now. Heather goes on to tell me I am being charged a deep cleaning fee for dogs I had. I explained to her I did not have dogs, my guest did and your front office staff let him leave the hotel just hours earlier with his dogs and didn’t mention a word to him. I also questioned why Shelly (or Shea) didn’t mention this to me earlier when she saw me with him and his dogs. She then LIED and said she never saw me with dogs, she doesn’t memorize guests names and had no idea. A disagreement ensued in which the general manager became loud and disrespectful. She actually escalated the situation, called me a liar and when I caught them in their lie and had proof Heather screams, “Get out of my hotel! This conversation is over!” I told her the conversation doesn’t get to be over because I proved her manager lied and she insisted on arguing with me and causing a spectacle in the lobby of the hotel. Heather then said she would call the police to remove me from the property and when I asked why she said because she felt threatened and I said I never threatened you and she replied So! I was completely blown away. In all of my travels I have never seen or been treated this way especially by a manager and general manager. A 2 day stay that was supposed to be $217 has now cost me $804. I believe they authorized additional charges to my card to hold funds out of spite. There’s no other reason I can think of an $800 hold for 2 nights with no incidentals. Also as I left the room Housekeeping wS entering to clean. She did not have any “special equipment” to clean my room and I’m sure the same grossness under the bed in 213 is still there.  See other reviews where guests complain about the rudeness and inappropriate comments made by the manager. They are clear evidence that I simply cannot be making these things up. This woman is a blemish to the Marriott brand.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>I wish I could rate this place zero stars. The one thing they got right was my request for an early check in but I am chalking that up to the fact that this hotel is literally in THE worse place which means they don’t do high volume business to begin with. Arriving my GPS wS confused and I realized that is because this hotel does not have its own access road. You literally drive into the parking lot of QuickTrip and Dickeys BBQ and cut across and these lots lead into the parking lot of the hotel. 
+Checking into my room I noted it was much smaller than other Residence Inn Marriott’s. I also noted housekeeping was lackluster. There were items left under the bed which always grosses me out. It makes me wonder how well they cleaned other things. 
+During my 2 day stay I must have stopped by the front desk a dozen times to have my key reprogrammed as they sporadically stopped working. I was the sole name on my reservation but I had someone come to the front desk and ask for a key and without calling to ask me if it was okay they released a key to him. Not once but twice! A employee AND the manager Shelly (or Shea I’m not sure what she goes by as she gave me one name but her badge displayed another). 
+At checkout I gave my...I wish I could rate this place zero stars. The one thing they got right was my request for an early check in but I am chalking that up to the fact that this hotel is literally in THE worse place which means they don’t do high volume business to begin with. Arriving my GPS wS confused and I realized that is because this hotel does not have its own access road. You literally drive into the parking lot of QuickTrip and Dickeys BBQ and cut across and these lots lead into the parking lot of the hotel. Checking into my room I noted it was much smaller than other Residence Inn Marriott’s. I also noted housekeeping was lackluster. There were items left under the bed which always grosses me out. It makes me wonder how well they cleaned other things. During my 2 day stay I must have stopped by the front desk a dozen times to have my key reprogrammed as they sporadically stopped working. I was the sole name on my reservation but I had someone come to the front desk and ask for a key and without calling to ask me if it was okay they released a key to him. Not once but twice! A employee AND the manager Shelly (or Shea I’m not sure what she goes by as she gave me one name but her badge displayed another). At checkout I gave my name and key and told the agent I was leaving and didn’t need a bill. Shea the manager came to assist the girl and direct her on how to check out, I was almost to the door when Heather the general manager stopped me and asked my name and room number. I told her and she says in an off hand manner, Oh I was just calling your room a second ago to tell you there’s an additional $100 charge for the pets you had. Is it ok to keep it on the card on file. I was floored. I said NO it is not okay and I think I need a copy of my bill now. Heather goes on to tell me I am being charged a deep cleaning fee for dogs I had. I explained to her I did not have dogs, my guest did and your front office staff let him leave the hotel just hours earlier with his dogs and didn’t mention a word to him. I also questioned why Shelly (or Shea) didn’t mention this to me earlier when she saw me with him and his dogs. She then LIED and said she never saw me with dogs, she doesn’t memorize guests names and had no idea. A disagreement ensued in which the general manager became loud and disrespectful. She actually escalated the situation, called me a liar and when I caught them in their lie and had proof Heather screams, “Get out of my hotel! This conversation is over!” I told her the conversation doesn’t get to be over because I proved her manager lied and she insisted on arguing with me and causing a spectacle in the lobby of the hotel. Heather then said she would call the police to remove me from the property and when I asked why she said because she felt threatened and I said I never threatened you and she replied So! I was completely blown away. In all of my travels I have never seen or been treated this way especially by a manager and general manager. A 2 day stay that was supposed to be $217 has now cost me $804. I believe they authorized additional charges to my card to hold funds out of spite. There’s no other reason I can think of an $800 hold for 2 nights with no incidentals. Also as I left the room Housekeeping wS entering to clean. She did not have any “special equipment” to clean my room and I’m sure the same grossness under the bed in 213 is still there.  See other reviews where guests complain about the rudeness and inappropriate comments made by the manager. They are clear evidence that I simply cannot be making these things up. This woman is a blemish to the Marriott brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r593360863-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>593360863</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>Needed a local hotel for wife and infant son to have a place to stay and relax while we moved from one house to another. We extended the stay from one night to a second night. It appears that instead of keeping the account open they must have charged/authorized one night on the card and then charged us again at check out for the 2 nights. Long story short - For a 2 night stay we have over $800 charged to our card. They are awful to work with and will become rude, dismissive and basically call you a liar if caught in their own lies. Obviously they didn’t keep the account open like they said they did and ran up additional charges without discussing this with us. I am still working on getting those additional charges reversed and when customer care reached out to management at this Residence Inn they received no response. If you want to enjoy your time and relax while staying in a hotel avoid this location at all costs. I’ve seen other reviews where management wants to argue with you and do nothing about the problem they created. I am working on getting my refund and will update the review when that time comes.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Needed a local hotel for wife and infant son to have a place to stay and relax while we moved from one house to another. We extended the stay from one night to a second night. It appears that instead of keeping the account open they must have charged/authorized one night on the card and then charged us again at check out for the 2 nights. Long story short - For a 2 night stay we have over $800 charged to our card. They are awful to work with and will become rude, dismissive and basically call you a liar if caught in their own lies. Obviously they didn’t keep the account open like they said they did and ran up additional charges without discussing this with us. I am still working on getting those additional charges reversed and when customer care reached out to management at this Residence Inn they received no response. If you want to enjoy your time and relax while staying in a hotel avoid this location at all costs. I’ve seen other reviews where management wants to argue with you and do nothing about the problem they created. I am working on getting my refund and will update the review when that time comes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r586072364-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>586072364</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Beautifully decorated inside and out, all the amenities, good for short/extended stays or events.</t>
+  </si>
+  <si>
+    <t>This was a pleasant surprise.  This is definately a go to for vacation travelers or business people who are wanting something more like an apartment [residence].  I think it would also be nice for meetings or events.  I saw some reviews on the "view" and you would not stay here for the view you would stay for location, price, and very nice clean, comfortable, and modern accommodations.  I have stayed in places that were triple the price that were not as nice as this. The landscaping is lovely, modern decor, clean rooms, cushy bed, large tv, rooms are quiet, there is some food and basic hygiene things you can buy for convenience if you don't want to take a 5 min drive somewhere.  They have a nice indoor pool, outdoor patio area, basketball court, gym.  The staff is friendly.  The breakfast was nice.  The only ding I can think of is if you have kids you want to check the tv or available channels before your kid reaches the remote [but that is true anywhere].MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>This was a pleasant surprise.  This is definately a go to for vacation travelers or business people who are wanting something more like an apartment [residence].  I think it would also be nice for meetings or events.  I saw some reviews on the "view" and you would not stay here for the view you would stay for location, price, and very nice clean, comfortable, and modern accommodations.  I have stayed in places that were triple the price that were not as nice as this. The landscaping is lovely, modern decor, clean rooms, cushy bed, large tv, rooms are quiet, there is some food and basic hygiene things you can buy for convenience if you don't want to take a 5 min drive somewhere.  They have a nice indoor pool, outdoor patio area, basketball court, gym.  The staff is friendly.  The breakfast was nice.  The only ding I can think of is if you have kids you want to check the tv or available channels before your kid reaches the remote [but that is true anywhere].More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r580458027-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>580458027</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Misinformed by desk staff, the GM insinuated I was a liar</t>
+  </si>
+  <si>
+    <t>Just go off the phone with the general manager and was extremely disappointed with how I was treated. This review is completely based upon the lack of professionalism and a lie that was told to me by the hotel staff; the actual rooms and property were good quality. We checked in on Friday May 11th and their computer systems were down. My in-laws had to cancel last minute, so they gave the room to us and had already called ahead to make sure they could pay for it. When we checked in I gave them my credit card number on a paper form, but was assured that it was just for a hold, and that the room was already paid for. I saw a $246 charge on my credit card go through today, so I called them. The manager said that the room was not paid for and they used my card as payment. She basically told me that I was lying and that the conversation I had with the hotel staff didn't take place because she "didn't have any notes on it. " She never offered any apology, only apologized that I was frustrated and insinuated that I was the liar, and not that the people who checked me in misinformed me or made a mistake.  The only offer to fix this involved faxing a form with ID attached- surely we can use e-mail in this day and age....Just go off the phone with the general manager and was extremely disappointed with how I was treated. This review is completely based upon the lack of professionalism and a lie that was told to me by the hotel staff; the actual rooms and property were good quality. We checked in on Friday May 11th and their computer systems were down. My in-laws had to cancel last minute, so they gave the room to us and had already called ahead to make sure they could pay for it. When we checked in I gave them my credit card number on a paper form, but was assured that it was just for a hold, and that the room was already paid for. I saw a $246 charge on my credit card go through today, so I called them. The manager said that the room was not paid for and they used my card as payment. She basically told me that I was lying and that the conversation I had with the hotel staff didn't take place because she "didn't have any notes on it. " She never offered any apology, only apologized that I was frustrated and insinuated that I was the liar, and not that the people who checked me in misinformed me or made a mistake.  The only offer to fix this involved faxing a form with ID attached- surely we can use e-mail in this day and age. I don't usually get in phone arguments with strangers trying to do their jobs, but the fact that I was told one thing by the front desk and then called a liar by the GM who wasn't even there is unbelievable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Just go off the phone with the general manager and was extremely disappointed with how I was treated. This review is completely based upon the lack of professionalism and a lie that was told to me by the hotel staff; the actual rooms and property were good quality. We checked in on Friday May 11th and their computer systems were down. My in-laws had to cancel last minute, so they gave the room to us and had already called ahead to make sure they could pay for it. When we checked in I gave them my credit card number on a paper form, but was assured that it was just for a hold, and that the room was already paid for. I saw a $246 charge on my credit card go through today, so I called them. The manager said that the room was not paid for and they used my card as payment. She basically told me that I was lying and that the conversation I had with the hotel staff didn't take place because she "didn't have any notes on it. " She never offered any apology, only apologized that I was frustrated and insinuated that I was the liar, and not that the people who checked me in misinformed me or made a mistake.  The only offer to fix this involved faxing a form with ID attached- surely we can use e-mail in this day and age....Just go off the phone with the general manager and was extremely disappointed with how I was treated. This review is completely based upon the lack of professionalism and a lie that was told to me by the hotel staff; the actual rooms and property were good quality. We checked in on Friday May 11th and their computer systems were down. My in-laws had to cancel last minute, so they gave the room to us and had already called ahead to make sure they could pay for it. When we checked in I gave them my credit card number on a paper form, but was assured that it was just for a hold, and that the room was already paid for. I saw a $246 charge on my credit card go through today, so I called them. The manager said that the room was not paid for and they used my card as payment. She basically told me that I was lying and that the conversation I had with the hotel staff didn't take place because she "didn't have any notes on it. " She never offered any apology, only apologized that I was frustrated and insinuated that I was the liar, and not that the people who checked me in misinformed me or made a mistake.  The only offer to fix this involved faxing a form with ID attached- surely we can use e-mail in this day and age. I don't usually get in phone arguments with strangers trying to do their jobs, but the fact that I was told one thing by the front desk and then called a liar by the GM who wasn't even there is unbelievable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r578304296-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
-    <t>55732</t>
-  </si>
-  <si>
-    <t>8631852</t>
-  </si>
-  <si>
     <t>578304296</t>
   </si>
   <si>
@@ -177,24 +372,12 @@
     <t>Very happy with the stay. Courteous staff. Clean, beautifully decorated rooms. Hot breakfast. The 2-room suite was large, with plenty of light. Kitchen had everything needed. Close to shopping center. They also have delivery to the room for grocery during the stay. Nice sized indoor pool, and nice gym. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Heather E, Manager at Residence Inn by Marriott Denton, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Heather E, Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 18, 2018</t>
   </si>
   <si>
     <t>Very happy with the stay. Courteous staff. Clean, beautifully decorated rooms. Hot breakfast. The 2-room suite was large, with plenty of light. Kitchen had everything needed. Close to shopping center. They also have delivery to the room for grocery during the stay. Nice sized indoor pool, and nice gym. More</t>
   </si>
   <si>
-    <t>MoonWillow420</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r573528875-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -213,9 +396,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -225,9 +405,6 @@
     <t>This hotel saved the trip!  Another hotel chain messed up our reservation so we had no room. After driving for over 12 hours we called Residence Inn, they had room at an affordable price and they welcomed our dogs!  This hotel has a great staff that went above and beyond.  Very clean looking and smelling and newer decor.  The bed was very comfortable and they offer internet tv so we could use our netflix and hulu.  Convenient location to atires and food options.  The pool area was clean,and not overwhelming smell of chlorine.I highly reccommend this hotel!More</t>
   </si>
   <si>
-    <t>austinteri</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r571964750-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -252,7 +429,55 @@
     <t>From our check in experience through checkout, this property was better than we expected. How often do you get to say that?  Devon at check in was pleasant and welcoming. Our room was spotless and tastefully designed and comfortable. The lobby was fun and interesting to look at. Breakfast was really good.  Checkout was a breeze, and access to and from the highway easy. Well done, team!More</t>
   </si>
   <si>
-    <t>godsbooboo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r569979087-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>569979087</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Wonderful and Helpful Staff</t>
+  </si>
+  <si>
+    <t>I have been here since Thursday and it is now Saturday evening. I will leave tomorrow. Although getting in and out of the parking lot is cumbersome, I will stay here the next time I am in town because of this fabulous staff. I have met most of them at one time or another and they have all been great. I am rather like Sally ordering a meal at the restaurant in When Harry met Sally. But the staff has not only been helpful which each thing I needed they went above and beyond. Hotel is very nice trendy and spacious. We have a King 2 room suite and I love it. The pool is relaxing. The breakfast buffet is very very nice. Hot dishes including meat and eggs. Fresh fruit. Cereals. Breads. Yogurts. Boiled eggs. Had a picnic on the patio. Just a lovely time here. Thank you Residence Inn for giving us a great long weekend:)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>I have been here since Thursday and it is now Saturday evening. I will leave tomorrow. Although getting in and out of the parking lot is cumbersome, I will stay here the next time I am in town because of this fabulous staff. I have met most of them at one time or another and they have all been great. I am rather like Sally ordering a meal at the restaurant in When Harry met Sally. But the staff has not only been helpful which each thing I needed they went above and beyond. Hotel is very nice trendy and spacious. We have a King 2 room suite and I love it. The pool is relaxing. The breakfast buffet is very very nice. Hot dishes including meat and eggs. Fresh fruit. Cereals. Breads. Yogurts. Boiled eggs. Had a picnic on the patio. Just a lovely time here. Thank you Residence Inn for giving us a great long weekend:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r567998957-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>567998957</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Home" </t>
+  </si>
+  <si>
+    <t>Having recently sold our home and looking for a place to call "home" while waiting to close on our new home, it was found here at The Residence Inn.  Staff (mgr, front desk, catering, housekeeping...EVERYONE) goes above &amp; beyond in all regards.  Professional, personable, accommodating...I felt welcomed &amp; safe; their rapport w/ guests supreme; the "little" extra touches so thoughtful &amp; genuine. This hotel sets the bar high &amp; I HIGHLY RECOMMEND!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Having recently sold our home and looking for a place to call "home" while waiting to close on our new home, it was found here at The Residence Inn.  Staff (mgr, front desk, catering, housekeeping...EVERYONE) goes above &amp; beyond in all regards.  Professional, personable, accommodating...I felt welcomed &amp; safe; their rapport w/ guests supreme; the "little" extra touches so thoughtful &amp; genuine. This hotel sets the bar high &amp; I HIGHLY RECOMMEND!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r551202739-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -282,9 +507,6 @@
     <t>My husband and I stayed at this hotel for the last three nights of our nine-day family Christmas trip.  Previously, we had stayed at two other Marriott hotels in our travels.This Residence Inn is new, therefore it is still clean and fresh.  The décor is nice and the rooms are comfortably furnished.  The hotel is in a good location, just off Interstate 35 and near restaurants and shopping.Upon closely reviewing our bill the day after we checked out (should have done that before we left the hotel) I noticed a Data Service charge of $4.95.  I spoke with Cindy at the Residence Inn about this and she said it was the High Speed Internet charge.  I told her we had been familiar with the two Internet charges, having stayed at other Marriott locations, and neither I nor my husband had chosen the High Speed.  Cindy said that charge could not be reversed as it was not a Marriott charge.  I then spoke with the manager, Heather.  She reiterated what Cindy had told me.  When I asked Heather for the contact information of their Internet provider, Heather hung up on me.I'm sure all their business contracts will keep this hotel alive but I was not impressed with management.  Maybe it's immaturity, but whatever it is I feel this is poor business practice.More</t>
   </si>
   <si>
-    <t>Lonnell D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r550020861-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -309,9 +531,6 @@
     <t>So, I am Marriott Gold Elite member.  I received a notification that my room was ready as I was driving into town.  I decided to call and ask if they had upgrades available because I did receive the notification.  A lady answered the phone and told me no because they were sold out.  Upon arrival to the hotel, I asked the question about receiving the upgrade.  The gentleman told me yes one was available.  I proceeded to ask if they were sold out, or has been anticipated to be sold out that night.  He told me no.  If she did not want to provide the upgrade, she could have said that, but lying to a customer is never a good result!  I was almost at a 2, but the other employees made up for this one.  This hotel also has extremely limited room choices.  More</t>
   </si>
   <si>
-    <t>Sirvirther C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r548773451-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -330,9 +549,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded December 28, 2017</t>
   </si>
   <si>
@@ -342,7 +558,49 @@
     <t>Great hotel with a nice room layout. I was here for work and my stay was a week. Housekeeping did an excellent job of cleaning the room. The bed was comfy and was at a great height. The room had a smart tv which allowed me to login to my Netflix account...big plus. I would recommend and would definitely stay here again. More</t>
   </si>
   <si>
-    <t>airdronepilot</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r547540887-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>547540887</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the Denton Residence Inn for our son-in-law’s graduation from UNT. It was excellent-clean and friendly!! The rooms are spacious and well equipped. We highly recommend this hotel. It is a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Denton Residence Inn for our son-in-law’s graduation from UNT. It was excellent-clean and friendly!! The rooms are spacious and well equipped. We highly recommend this hotel. It is a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r539750109-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>539750109</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great hotel in the Denton area.</t>
+  </si>
+  <si>
+    <t>We were attending a wedding in the area, and we had booked rooms for guests across Thursday to Saturday.  The location was very convenient for us. It's not one of their larger properties, as it is only several floors.FIrst, the staff were great in setting up a booking block, and helping make the arrangements. On the day of check in, we had to plan for some early check-ins, and they were able to accomodate us, thankfully. The facility was clean, and bright with lots of natural light. Different from some other Residence Inns I've been in, this one is more modern in design. The rooms were clean, and appeared well maintained. We need to make a change on one room to extend for another night. The staff was great in helping us to make the change that was beneficial for us, and not having to change rooms. In addition, we had a get together in the lobby with the wedding guests/family. We literally took over the lobby with a pizza and drinks. The staff was, again, very accommodating with us, and helpful. A great hotel in Denton which I would select again if needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>We were attending a wedding in the area, and we had booked rooms for guests across Thursday to Saturday.  The location was very convenient for us. It's not one of their larger properties, as it is only several floors.FIrst, the staff were great in setting up a booking block, and helping make the arrangements. On the day of check in, we had to plan for some early check-ins, and they were able to accomodate us, thankfully. The facility was clean, and bright with lots of natural light. Different from some other Residence Inns I've been in, this one is more modern in design. The rooms were clean, and appeared well maintained. We need to make a change on one room to extend for another night. The staff was great in helping us to make the change that was beneficial for us, and not having to change rooms. In addition, we had a get together in the lobby with the wedding guests/family. We literally took over the lobby with a pizza and drinks. The staff was, again, very accommodating with us, and helpful. A great hotel in Denton which I would select again if needed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r538039881-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -360,21 +618,9 @@
     <t>This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause...This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause a noise problem.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded November 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 17, 2017</t>
-  </si>
-  <si>
     <t>This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause...This Marriott RI was rated on a 28+ day extended stay.  Most hotels are acceptable for one or two night stays.    This RI has all the Marriott great features when it comes to comfort, cleanliness, professional staff and a GM who is present.   It was also very friendly to FEMA employees who are working hurricane Harvey.  Not always the case at other Marriotts.   The breakfast fixing were the typical Marriott menu,  great for a couple days but boring after a couple weeks.  Pancakes and French Toast have been eliminated but all you can eat Waffles are still there.   The RI really really needs to nix the mix.  It has gone from a nice after work meal to you better grab something on your way back to the hotel event.  Use the Mix money on a better breakfast.  I dont blame this RI for the MIX it was a Mr. Marriott decision.  BAD ONE.   This hotel would have received an excellent rating except for the two following items:  Shower quickly, the hot water lasts for 100 seconds pops off but returns after a minute or so.  Three complaints and no resolve.   Also stay on the top floor, there seems to be a no noise abatement problem between floors.   Or this RI allows elephants in the rooms.   Yes, all the good thing would put this hotel on the top  of my list when in Denton TX.   BTW.  The interstate does not cause a noise problem.More</t>
   </si>
   <si>
-    <t>56Deb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r531120118-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -384,9 +630,6 @@
     <t>10/08/2017</t>
   </si>
   <si>
-    <t>Great stay!</t>
-  </si>
-  <si>
     <t>I spent two nights at this hotel last weekend while I was in town for my son's wedding, which was held in Aubrey, TX.  Our room was clean, comfortable, spacious, and quiet.  I booked the room by redeeming some points and also using a free night obtained as a Marriott Rewards Cardholder. The front desk staff was very pleasant.  In fact, Tyler remembered my name throughout my stay.  The breakfast personnel were equally kind.  In fact, one of the ladies went into the kitchen in search of perfectly ripe banana for my husband! The hotel was a little hard to locate once we exited, I-35.  Your best bet would be to enter through the QT parking lot and drive thru the small strip mall.  The view from our room was of a power station. However, I don't think any of the rooms offer a great view due to the location of the hotel. I would definitely stay at this hotel again if I am ever in the area.  My son commented that our room was much nicer than his room at the Marriott Courtyard and that his room also did not include a complimentary breakfast.MoreShow less</t>
   </si>
   <si>
@@ -399,9 +642,6 @@
     <t>I spent two nights at this hotel last weekend while I was in town for my son's wedding, which was held in Aubrey, TX.  Our room was clean, comfortable, spacious, and quiet.  I booked the room by redeeming some points and also using a free night obtained as a Marriott Rewards Cardholder. The front desk staff was very pleasant.  In fact, Tyler remembered my name throughout my stay.  The breakfast personnel were equally kind.  In fact, one of the ladies went into the kitchen in search of perfectly ripe banana for my husband! The hotel was a little hard to locate once we exited, I-35.  Your best bet would be to enter through the QT parking lot and drive thru the small strip mall.  The view from our room was of a power station. However, I don't think any of the rooms offer a great view due to the location of the hotel. I would definitely stay at this hotel again if I am ever in the area.  My son commented that our room was much nicer than his room at the Marriott Courtyard and that his room also did not include a complimentary breakfast.More</t>
   </si>
   <si>
-    <t>Doc523</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r524129253-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -420,9 +660,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded September 21, 2017</t>
   </si>
   <si>
@@ -432,7 +669,52 @@
     <t>The hotel is nice and so are all the employees I met.  Clean like you expect out of the Marriott system plenty of parking and beds are very comfortable.  Tiffany at the front desk ( breakfast area and social director)  needs a big shout out in a three day stay I watched her work three different positions and was very good at eachMore</t>
   </si>
   <si>
-    <t>BritishSandite</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r522469127-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>522469127</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Reservation was cancelled</t>
+  </si>
+  <si>
+    <t>Its too bad that there is not a zero feature. On Saturday, we were traveling from San Antonio and to Oklahoma.   I booked a Reward stay at this location and I received confirmation. Several hours later, I received an email confirming my cancellation.  Being that I DID NOT cancel, I called the hotel. The young man who answered the phone \informed me that he was new,  as was the other employee on duty. He stated that he'd contact his manager and asked me to call back in 4 HOURS???Being that I was 100 miles away, I told him Id call in half hour. When I called he stated that the manager informed him that there was nothing that could be done and Id have to look for lodging elsewhere. All hotels at this point in that vicinity and elsewhere were booked. We stayed at a location 50 miles past where we were confirmed.I had initially asked if the manager who look to find me lodging at another Marriott, and if they could call me. They never did. I never received a straight answer as how my reservation was cancelledMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Its too bad that there is not a zero feature. On Saturday, we were traveling from San Antonio and to Oklahoma.   I booked a Reward stay at this location and I received confirmation. Several hours later, I received an email confirming my cancellation.  Being that I DID NOT cancel, I called the hotel. The young man who answered the phone \informed me that he was new,  as was the other employee on duty. He stated that he'd contact his manager and asked me to call back in 4 HOURS???Being that I was 100 miles away, I told him Id call in half hour. When I called he stated that the manager informed him that there was nothing that could be done and Id have to look for lodging elsewhere. All hotels at this point in that vicinity and elsewhere were booked. We stayed at a location 50 miles past where we were confirmed.I had initially asked if the manager who look to find me lodging at another Marriott, and if they could call me. They never did. I never received a straight answer as how my reservation was cancelledMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r519191574-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>519191574</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>A room with a view!</t>
+  </si>
+  <si>
+    <t>As a Platinum Premier Elite rewards member I never expect an upgrade to a room with a view of a wall. Last time I had a view like this was in New York city at Super 8 twenty years ago. Avoid the rooms with the last two digits 20. Hotel is fairly new. The breakfast staff are great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>As a Platinum Premier Elite rewards member I never expect an upgrade to a room with a view of a wall. Last time I had a view like this was in New York city at Super 8 twenty years ago. Avoid the rooms with the last two digits 20. Hotel is fairly new. The breakfast staff are great.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r507260406-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -462,9 +744,6 @@
     <t>I booked this for one night due to business in the Denton, Texas area, and I'm glad I ran into this area. The property and staff were absolutely top notch! Upon check-in, the front desk associate, Tyler, gave great friendly and personal service to ensure satisfaction. He called after an hour to ensure that the room was to perfection, and offered his name and extension if I needed anything else.The room was one of the best Marriott rooms I have stayed at, and I'm a Platinum Elite member, so I've seen a lot!The GM was friendly, and even offered to keep my food in their fridge after checkout so it would stay cold (the car would ruin the food in a Texas summer!). Absolutely, 10/10 I will stay again. Thank you!More</t>
   </si>
   <si>
-    <t>jergmar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r503982605-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -480,18 +759,9 @@
     <t>The hotel is very comfortable, the breakfast more that adequate and the staff were all very friendly.  We will definitely stay at this location for any future visits to the area.  the hotel is right off the I 35 so it is very convenient.  There is a shopping mall about 1.5 miles away.MoreShow less</t>
   </si>
   <si>
-    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded September 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 9, 2017</t>
-  </si>
-  <si>
     <t>The hotel is very comfortable, the breakfast more that adequate and the staff were all very friendly.  We will definitely stay at this location for any future visits to the area.  the hotel is right off the I 35 so it is very convenient.  There is a shopping mall about 1.5 miles away.More</t>
   </si>
   <si>
-    <t>Jamila G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r499727735-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -519,7 +789,55 @@
     <t>We traveled from Minnesota and stayed in 5 hotels in 4 states on this football camp trip and by far, the Residence Denton was the best. Great staff, great breakfast, clean classy decor. I can't say enough about how great our stay was thanks to Heather and her amazing staff.More</t>
   </si>
   <si>
-    <t>Boris072</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r485843463-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>485843463</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Everything was perfect</t>
+  </si>
+  <si>
+    <t>All staff is AWESOME! Rooms are comfortable, Rooms are good size, Very clean hotel, Comp breakfest with good variety. Next to Denton Medical Center. We had a family member in the ICU for over 2 months we stayed at this hotel a couple times. They didn't miss a beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>All staff is AWESOME! Rooms are comfortable, Rooms are good size, Very clean hotel, Comp breakfest with good variety. Next to Denton Medical Center. We had a family member in the ICU for over 2 months we stayed at this hotel a couple times. They didn't miss a beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r484792381-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>484792381</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Be aware of higher rate change at check out!!!!!</t>
+  </si>
+  <si>
+    <t>My family checked in using a government id for a better rate. When we went to check out it was more then my reservation quoted. I was never informed. I should of looked at the reviews on their website dated 9/23/16. The same manager was rude to us. Check your bill for higher rates at check outMoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>My family checked in using a government id for a better rate. When we went to check out it was more then my reservation quoted. I was never informed. I should of looked at the reviews on their website dated 9/23/16. The same manager was rude to us. Check your bill for higher rates at check outMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r484732956-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -528,18 +846,12 @@
     <t>484732956</t>
   </si>
   <si>
-    <t>05/16/2017</t>
-  </si>
-  <si>
     <t>Best Hotel near Denton</t>
   </si>
   <si>
     <t>I've stayed at a few 'tier two' places in Denton and this one is by far the best (there are no 'tier one' places, like Marriotts or Hiltons).  Looks to be fairly new.  We had a two bedroom/two bath and it was very modern, clean, and large.  Very comfortable beds. Fully equipped kitchen.  It is a little tricky to get to off the interstate, having to meander through to the back of a small strip shopping center (use your GPS), but parking was ample, lobby was nicely decorated, and the free breakfast was good (waffle maker, eggs, cereals, breakfast meats, etc). We went for my daughter's graduation from UNT.  It takes only a few minutes to drive to downtown Denton.  Nearby there are some family restaurant chains (BJ's, On the Border, etc.) although there is nothing walk-able.  We'll stay at the Residence Inn again.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 19, 2017</t>
   </si>
   <si>
@@ -549,9 +861,6 @@
     <t>I've stayed at a few 'tier two' places in Denton and this one is by far the best (there are no 'tier one' places, like Marriotts or Hiltons).  Looks to be fairly new.  We had a two bedroom/two bath and it was very modern, clean, and large.  Very comfortable beds. Fully equipped kitchen.  It is a little tricky to get to off the interstate, having to meander through to the back of a small strip shopping center (use your GPS), but parking was ample, lobby was nicely decorated, and the free breakfast was good (waffle maker, eggs, cereals, breakfast meats, etc). We went for my daughter's graduation from UNT.  It takes only a few minutes to drive to downtown Denton.  Nearby there are some family restaurant chains (BJ's, On the Border, etc.) although there is nothing walk-able.  We'll stay at the Residence Inn again.More</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r481719289-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -570,9 +879,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded May 12, 2017</t>
   </si>
   <si>
@@ -582,9 +888,6 @@
     <t>Great location---new hotel. Kids loved swimming in the pool. Everyone that works there was really nice &amp; friendly! After getting home a few days later, I realized I left my favorite sweater in the room. I called the hotel and the staff found my sweater!! Rosa found it in my room &amp; turned it in to lost and found. The manager, Heather, mailed it to my house!! Excellent customer service. I am SO grateful! Would definitely recommend this hotel to anyone!! More</t>
   </si>
   <si>
-    <t>merlmonroe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r479850428-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -603,7 +906,55 @@
     <t>We could not have been more pleased with our accommodations at the Marriott.  The entire staff was wonderful and did everything to make us feel welcome. We highly recommend this site when staying in the Denton area.More</t>
   </si>
   <si>
-    <t>aaronsP5623ZY</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r474846371-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>474846371</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Enjoyed my first stay at this new location.  Rooms were nicely detailed with comfortable beds and great showers.  Kitchen was fully furnished…almost wish we could have stayed longer.  Breakfast was good, coffee good.  Exercise room had treadmills, ellipticals and free weights.  Even had an area for Pilates. Didn’t have time to go swimming, but the pool looked inviting. Very clean. Nice outdoor space for a cookout and basketball court. Mon-Wed evening mixers for networking. Within walking distance to restaurants and a convenience store. We were there hosting a meeting, and our meeting room was excellent with a in-ceiling projector and Bose speakers for sound.  And immediate access to the outside, so this location would be good for a small conference with multiple tracks.To top off my excellent experience, great customer service.  I’m definitely coming back to this location. Nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Enjoyed my first stay at this new location.  Rooms were nicely detailed with comfortable beds and great showers.  Kitchen was fully furnished…almost wish we could have stayed longer.  Breakfast was good, coffee good.  Exercise room had treadmills, ellipticals and free weights.  Even had an area for Pilates. Didn’t have time to go swimming, but the pool looked inviting. Very clean. Nice outdoor space for a cookout and basketball court. Mon-Wed evening mixers for networking. Within walking distance to restaurants and a convenience store. We were there hosting a meeting, and our meeting room was excellent with a in-ceiling projector and Bose speakers for sound.  And immediate access to the outside, so this location would be good for a small conference with multiple tracks.To top off my excellent experience, great customer service.  I’m definitely coming back to this location. Nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r470837574-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>470837574</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Great Place for short or LONG stay</t>
+  </si>
+  <si>
+    <t>we had a house fire which resulted in a TOTAL loss.  At first our insurance company had us in "emergency" housing which was hell.  Then we found the Denton location (Residence Inn).   We've stayed at 5 star resorts world-wide that have not had as professional and as nice desk staff, management, and hostesses.   Truly WONDERFUL people that actually care about their guests.   They made the fire aftermath bearable.   We are still here and they actually make it a bit hard to find a temporary home, when you consider that they take care of everything else for you! lol.   A wonderful place to stay for a night or to stay long term while you need recovery or just a good rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>we had a house fire which resulted in a TOTAL loss.  At first our insurance company had us in "emergency" housing which was hell.  Then we found the Denton location (Residence Inn).   We've stayed at 5 star resorts world-wide that have not had as professional and as nice desk staff, management, and hostesses.   Truly WONDERFUL people that actually care about their guests.   They made the fire aftermath bearable.   We are still here and they actually make it a bit hard to find a temporary home, when you consider that they take care of everything else for you! lol.   A wonderful place to stay for a night or to stay long term while you need recovery or just a good rest.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r469833918-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -633,9 +984,6 @@
     <t>we had a quick trip to the DFW area and needed a place to stay for one night.  This property was extremely clean, a great value, and the staff was friendly and helpful.  I highly recommend this location!More</t>
   </si>
   <si>
-    <t>Austxnaturegal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r466792336-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -660,9 +1008,6 @@
     <t>This is such a pleasant place to stay.  The staff at the front desk were so nice and accommodating.  It was obvious a lot of thought had gone into the layout and furnishings of our king suite.  There was a large desk, comfortable sofa with a snack table and a TV that swiveled 180 degrees so it could be watched from the living room or bedroom.  There was a huge shower with a wonderful shower head.  The hot breakfast was delicious and varies from day-to-day (waffles very good).  We don't have much cause to be in Denton, but if we go back we would absolutely stay here again.  As best we could tell, there is no real driveway into this property.  You sort of have to weave your way through the gas station/bbq/strip shopping lots to get to the hotel.  It could be marked better at ground level, but you can clearly see the hotel from the highway.More</t>
   </si>
   <si>
-    <t>TLBJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r455628072-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -690,7 +1035,49 @@
     <t>I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes...I am a Marriott Platinum Member and have stayed at various Marriott's over the past 12 years for work all over the country. The front desk staff are very friendly and helpful and the hotel is new has a welcoming feel. My main complaint with the hotel is the housekeeping. The first time they cleaned my room they didn't even remove the trash or touch the kitchen and didn't change the bed linens as requested. They did however take the tip I left for them. There was also a musty odor to the mattress. Not sure why but when I checked in to another room, the mattress had that same odor. In that room, there was crumbs of food and dust all over the TV stand and when I went to get a coffee mug out of the cabinet it was stained with coffee and what appeared to be mold. Not acceptable in any way. By far the worst housekeeping at any Marriott I have stayed in. Probably will not return to this location if work sends me back to the area in the future simply due to the lack of housekeeping. I am currently in a Fairfield Inn in another city in Texas and the housekeeping here is great. My room was cleaned perfectly and when my tip was taken there was a very nice Thank You note left. This is the Marriott standard, not smelly mattress, dirty dishes and leaving trash in the room after it has supposedly been cleaned. More</t>
   </si>
   <si>
-    <t>FrankVZ8521</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r449862306-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>449862306</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Clean and Pleasant!</t>
+  </si>
+  <si>
+    <t>The hotel is very clean, contemporary and space-efficiently designed.  The kitchen area has everything you need... Pots, pans, utensils, colander, small cute dish soap, dish towel... And regular-size refrigerator, not the small hotel size.  Love how they designed the space in the room nicely.  Got enough equipments in gym, but pool is tiny! Laudry area has excellent front load machines!Free American breakfast is very fresh and delicious!Overall, it was a Very Pleasant Stay! Please keep up good works Residence Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very clean, contemporary and space-efficiently designed.  The kitchen area has everything you need... Pots, pans, utensils, colander, small cute dish soap, dish towel... And regular-size refrigerator, not the small hotel size.  Love how they designed the space in the room nicely.  Got enough equipments in gym, but pool is tiny! Laudry area has excellent front load machines!Free American breakfast is very fresh and delicious!Overall, it was a Very Pleasant Stay! Please keep up good works Residence Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r446463183-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>446463183</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to help us, and gave great advice when it came to places to eat near UNT. They allowed us to store my son's bike without question.  We stayed in a two bedroom suite, and while the room was a tad smaller than other rooms, it didn't make a difference for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to help us, and gave great advice when it came to places to eat near UNT. They allowed us to store my son's bike without question.  We stayed in a two bedroom suite, and while the room was a tad smaller than other rooms, it didn't make a difference for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r435207810-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -712,9 +1099,6 @@
   </si>
   <si>
     <t>Terrific hotel and brand new and very nicely decorated. Staff was professional, friendly and Mathew at front desk went out of his way to help us resolve a minor issue. Breakfast was good and plenty of food and well kept up.Great location to UNT and I35 would highly  recommend is doing any functions at the university. More</t>
-  </si>
-  <si>
-    <t>lietuva_9</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r433260036-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -744,9 +1128,6 @@
 Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and...Stayed here for three weeks and was sorry to leave. This place opened in August 2016 and is fresh and new. Large lobby lounge with bright daylight and varied seating. The fire pit courtyard is toward the front but is a decent size. The meal service area can be closed off with sliding doors, which is nice.  There are several conference/meeting rooms, though I didn't use them. My room had a nice kitchen with a two burner cooktop.  Problem is, you can't fit two large pots on it at once.  The cabinets are lovely but you need to climb on a chair to get anything on or off the upper shelves!  And wallcovering behind the cooktop will be nasty in a year with splatters and scorches. The lounge and desk area were spacious and bright. There's a good supply of power outlets. On the fourth floor, at least, the room has a high ceiling and feels very airy.  The king bed is a little tight in the room. The bath vanity has nice storage.  The shower features an open roller modern door and linear drain, very modern.  There's a good amount of clothes storage in the closet and dresser.  Although the hotel is right by the freeway, there is little noise.  Very quiet in the rooms.  There are a few restaurants in walking distance and a convenience store/gas station nearby too.  This location is very close to some hospitals and other health care.  This hotel is nicely dog friendly with two lawn areas to the back under high tension power lines, and a station with bags and a disposal can. I just wish some of my fellow guests would have used it!More</t>
   </si>
   <si>
-    <t>AR-BRAY</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r430956022-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -765,7 +1146,46 @@
     <t>We had 3 rooms. The rooms are great in layout and size. The pool is nice. Breakfast is good. The staff is friendly. Now for the bad, HOUSEKEEPING. My SIL room was still dirty at check in, this may have been a frint desk mistake but it's not the only HOUSEKEEPING issue. Our room had emptt tissue box and no toilets paper on the roll. The following day HOUSEKEEPING knocked at 8. We were about to leave for a funeral and told them to come back. We were gone for almost 4 hours and they never came. We let the frint desk know when we were about to leave again around 5 and just asked to get towels and sheets. We got back at 8 ro nothing. We called the fd again and finally got these itemsMore</t>
   </si>
   <si>
-    <t>Lynda P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r424789221-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>424789221</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Great hotel overall!</t>
+  </si>
+  <si>
+    <t>This seemed to be a fairly new location, which is always good.  The front desk staff were friendly, but for some reason just did not have that Marriott friendliness.  At any other chain, I would not even bother to mention this, but it just felt a bit lesser when in direct contact with the front desk staff.  I am a Marriott gold rewards member so I think I do get more critical of things such as this.  They did not have any lotion on hand.  Many Marriotts are no longer stocking the rooms with lotion, but they typically have lotion available.  The breakfast was more edible than usual.  Aside from that, it was a great stay in a nice room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>This seemed to be a fairly new location, which is always good.  The front desk staff were friendly, but for some reason just did not have that Marriott friendliness.  At any other chain, I would not even bother to mention this, but it just felt a bit lesser when in direct contact with the front desk staff.  I am a Marriott gold rewards member so I think I do get more critical of things such as this.  They did not have any lotion on hand.  Many Marriotts are no longer stocking the rooms with lotion, but they typically have lotion available.  The breakfast was more edible than usual.  Aside from that, it was a great stay in a nice room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r424756935-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>424756935</t>
+  </si>
+  <si>
+    <t>UNT PARENTS BEWARE!</t>
+  </si>
+  <si>
+    <t>I had to postpone my trip. I contacted Marriott and was told the General Manager would contact me within 24/48 hours to discuss my cancellation. This was prior to my initial travel date. The GM never did contact me concerning this. Instead I was charged $380! Had I know I would not receive credit toward my trip the following month, I could've offered it to another UNT parent so at least someone would get use of it. When I called back to see if we could work something out for my upcoming stay, they would not even consider it. I have been  using Marriott a long time but will be using other hotels in the future.  UNT PARENTS BEWARE!There are other hotels that are much more UNT friendly and welcome parents visiting without the hassle!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I had to postpone my trip. I contacted Marriott and was told the General Manager would contact me within 24/48 hours to discuss my cancellation. This was prior to my initial travel date. The GM never did contact me concerning this. Instead I was charged $380! Had I know I would not receive credit toward my trip the following month, I could've offered it to another UNT parent so at least someone would get use of it. When I called back to see if we could work something out for my upcoming stay, they would not even consider it. I have been  using Marriott a long time but will be using other hotels in the future.  UNT PARENTS BEWARE!There are other hotels that are much more UNT friendly and welcome parents visiting without the hassle!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d8631852-r424530343-Residence_Inn_by_Marriott_Denton-Denton_Texas.html</t>
@@ -781,15 +1201,6 @@
   </si>
   <si>
     <t>I was in room 429... A perfect location at the end of the hall, very quiet (note that was only because nobody played ball on the court right outside my window... If that will bother you ask for the other end of the hall).  What I LOVED:1.  The one bedroom suite now has the bedroom separate from the bathroom so the person on the pull out sofa can use the bathroom without going through the bedroom. 2.  The location was easy on and off the highway What was good - bed linens and pillows were the Marriott brand, but the mattress was not... So comfy but not excellent. The glitches - the air conditioner blows air onto your head while sleeping. It's not right over top, it's the angle of the vent. In the living area the air hits you while sitting on the sofa. They could really use some new vents that diffuse the cold air better.  It made sitting and reading in bed very uncomfortable.  This lowered them from a 4 to a 3 star.Pet peeve - checked in at 12:30 on a Friday afternoon, platinum level Marriott rewards member... Already out of newspapers.  Come on guys, you should know the number of people checking in and plan better. Guy at the desk offered that I could walk to the gas station. Gee, thanks.MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Heather E, General Manager at Residence Inn by Marriott Denton, responded to this reviewResponded October 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 12, 2016</t>
   </si>
   <si>
     <t>I was in room 429... A perfect location at the end of the hall, very quiet (note that was only because nobody played ball on the court right outside my window... If that will bother you ask for the other end of the hall).  What I LOVED:1.  The one bedroom suite now has the bedroom separate from the bathroom so the person on the pull out sofa can use the bathroom without going through the bedroom. 2.  The location was easy on and off the highway What was good - bed linens and pillows were the Marriott brand, but the mattress was not... So comfy but not excellent. The glitches - the air conditioner blows air onto your head while sleeping. It's not right over top, it's the angle of the vent. In the living area the air hits you while sitting on the sofa. They could really use some new vents that diffuse the cold air better.  It made sitting and reading in bed very uncomfortable.  This lowered them from a 4 to a 3 star.Pet peeve - checked in at 12:30 on a Friday afternoon, platinum level Marriott rewards member... Already out of newspapers.  Come on guys, you should know the number of people checking in and plan better. Guy at the desk offered that I could walk to the gas station. Gee, thanks.More</t>
@@ -1297,112 +1708,108 @@
       <c r="A2" t="n">
         <v>63408</v>
       </c>
-      <c r="B2" t="n">
-        <v>175883</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63408</v>
       </c>
-      <c r="B3" t="n">
-        <v>175884</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1414,60 +1821,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63408</v>
       </c>
-      <c r="B4" t="n">
-        <v>110160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1479,131 +1882,117 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63408</v>
       </c>
-      <c r="B5" t="n">
-        <v>146860</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63408</v>
       </c>
-      <c r="B6" t="n">
-        <v>90839</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
         <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1615,267 +2004,247 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63408</v>
       </c>
-      <c r="B7" t="n">
-        <v>175885</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>103</v>
-      </c>
       <c r="O7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63408</v>
       </c>
-      <c r="B8" t="n">
-        <v>175886</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63408</v>
       </c>
-      <c r="B9" t="n">
-        <v>175887</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63408</v>
       </c>
-      <c r="B10" t="n">
-        <v>175888</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1887,60 +2256,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63408</v>
       </c>
-      <c r="B11" t="n">
-        <v>175889</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1952,271 +2317,245 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63408</v>
       </c>
-      <c r="B12" t="n">
-        <v>175890</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63408</v>
       </c>
-      <c r="B13" t="n">
-        <v>175891</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63408</v>
       </c>
-      <c r="B14" t="n">
-        <v>75223</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="n">
         <v>5</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63408</v>
       </c>
-      <c r="B15" t="n">
-        <v>508</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2228,60 +2567,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63408</v>
       </c>
-      <c r="B16" t="n">
-        <v>175892</v>
-      </c>
-      <c r="C16" t="s">
-        <v>188</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2293,61 +2628,53 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63408</v>
       </c>
-      <c r="B17" t="n">
-        <v>175893</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s">
-        <v>65</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2358,66 +2685,62 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63408</v>
       </c>
-      <c r="B18" t="n">
-        <v>175894</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -2429,261 +2752,251 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63408</v>
       </c>
-      <c r="B19" t="n">
-        <v>175895</v>
-      </c>
-      <c r="C19" t="s">
-        <v>214</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63408</v>
       </c>
-      <c r="B20" t="n">
-        <v>175896</v>
-      </c>
-      <c r="C20" t="s">
-        <v>224</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63408</v>
       </c>
-      <c r="B21" t="n">
-        <v>69816</v>
-      </c>
-      <c r="C21" t="s">
-        <v>232</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63408</v>
       </c>
-      <c r="B22" t="n">
-        <v>175897</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2695,84 +3008,1433 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63408</v>
       </c>
-      <c r="B23" t="n">
-        <v>32112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" t="n">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>237</v>
+      </c>
+      <c r="X24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
         <v>254</v>
       </c>
-      <c r="X23" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
         <v>255</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>284</v>
+      </c>
+      <c r="O30" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>325</v>
+      </c>
+      <c r="X35" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>285</v>
+      </c>
+      <c r="X38" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>285</v>
+      </c>
+      <c r="X39" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J40" t="s">
+        <v>361</v>
+      </c>
+      <c r="K40" t="s">
+        <v>362</v>
+      </c>
+      <c r="L40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>285</v>
+      </c>
+      <c r="X40" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>367</v>
+      </c>
+      <c r="J41" t="s">
+        <v>368</v>
+      </c>
+      <c r="K41" t="s">
+        <v>369</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>285</v>
+      </c>
+      <c r="X41" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63408</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
